--- a/data/pca/factorExposure/factorExposure_2016-06-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-06-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01076691847774725</v>
+        <v>-0.01267534302867242</v>
       </c>
       <c r="C2">
-        <v>-0.05456784392905292</v>
+        <v>0.03965993264268843</v>
       </c>
       <c r="D2">
-        <v>-0.0413830617570244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05716078504188045</v>
+      </c>
+      <c r="E2">
+        <v>0.08302889963621822</v>
+      </c>
+      <c r="F2">
+        <v>0.08439377883926411</v>
+      </c>
+      <c r="G2">
+        <v>0.002276995581105448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03861030589209104</v>
+        <v>-0.02305750705124836</v>
       </c>
       <c r="C3">
-        <v>-0.1157524196823042</v>
+        <v>0.07044248133623909</v>
       </c>
       <c r="D3">
-        <v>-0.09467138104819023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07880709287413035</v>
+      </c>
+      <c r="E3">
+        <v>0.06644213073424937</v>
+      </c>
+      <c r="F3">
+        <v>-0.02295766863039814</v>
+      </c>
+      <c r="G3">
+        <v>-0.04041199205690221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05764683393790361</v>
+        <v>-0.05589828648091108</v>
       </c>
       <c r="C4">
-        <v>-0.06203139956288482</v>
+        <v>0.06522985039994009</v>
       </c>
       <c r="D4">
-        <v>-0.02886825183055974</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05205928690124471</v>
+      </c>
+      <c r="E4">
+        <v>0.08116452664863839</v>
+      </c>
+      <c r="F4">
+        <v>0.066319649409203</v>
+      </c>
+      <c r="G4">
+        <v>-0.07241001084262305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03864210672400128</v>
+        <v>-0.03452060058434075</v>
       </c>
       <c r="C6">
-        <v>-0.03885110442822003</v>
+        <v>0.03019638539103238</v>
       </c>
       <c r="D6">
-        <v>-0.03300030019409128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05848790767267357</v>
+      </c>
+      <c r="E6">
+        <v>0.08272441033009163</v>
+      </c>
+      <c r="F6">
+        <v>0.0510557104394983</v>
+      </c>
+      <c r="G6">
+        <v>-0.05651145136397622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02044775141497424</v>
+        <v>-0.01688096163227472</v>
       </c>
       <c r="C7">
-        <v>-0.04625452872010063</v>
+        <v>0.03866363953887557</v>
       </c>
       <c r="D7">
-        <v>0.005691127723514112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03339032503660436</v>
+      </c>
+      <c r="E7">
+        <v>0.05905498916141653</v>
+      </c>
+      <c r="F7">
+        <v>0.09626975136987134</v>
+      </c>
+      <c r="G7">
+        <v>-0.06185189117386435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.005692228781814502</v>
+        <v>-0.003090779323149602</v>
       </c>
       <c r="C8">
-        <v>-0.03569262655320531</v>
+        <v>0.03196431066463431</v>
       </c>
       <c r="D8">
-        <v>-0.02531295499689988</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0306654530495009</v>
+      </c>
+      <c r="E8">
+        <v>0.05596997559645228</v>
+      </c>
+      <c r="F8">
+        <v>0.03319868305445016</v>
+      </c>
+      <c r="G8">
+        <v>-0.02702635013329235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03188158080274626</v>
+        <v>-0.03571375887230542</v>
       </c>
       <c r="C9">
-        <v>-0.04803157148296791</v>
+        <v>0.05189203259227308</v>
       </c>
       <c r="D9">
-        <v>-0.01374709000601813</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03738738508663179</v>
+      </c>
+      <c r="E9">
+        <v>0.06876890587749473</v>
+      </c>
+      <c r="F9">
+        <v>0.07594826857425709</v>
+      </c>
+      <c r="G9">
+        <v>-0.06163629818122889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.0854980185329467</v>
+        <v>-0.1067745380433969</v>
       </c>
       <c r="C10">
-        <v>0.1875231639178421</v>
+        <v>-0.1937027679952197</v>
       </c>
       <c r="D10">
-        <v>0.006452389285722985</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01126128417153747</v>
+      </c>
+      <c r="E10">
+        <v>0.0430642580965318</v>
+      </c>
+      <c r="F10">
+        <v>0.02740789807853068</v>
+      </c>
+      <c r="G10">
+        <v>-0.0246529932211106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.03906867534722261</v>
+        <v>-0.03474395625275769</v>
       </c>
       <c r="C11">
-        <v>-0.0547424878065392</v>
+        <v>0.04975567635909561</v>
       </c>
       <c r="D11">
-        <v>-0.01020298937781893</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03013787237402222</v>
+      </c>
+      <c r="E11">
+        <v>0.02303634921306625</v>
+      </c>
+      <c r="F11">
+        <v>0.05990516880520833</v>
+      </c>
+      <c r="G11">
+        <v>-0.04922101446826781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04119795123476097</v>
+        <v>-0.03709455276414349</v>
       </c>
       <c r="C12">
-        <v>-0.04976961580861151</v>
+        <v>0.0470011183334713</v>
       </c>
       <c r="D12">
-        <v>-0.0008127466655138224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.0232811289913587</v>
+      </c>
+      <c r="E12">
+        <v>0.03088207810936383</v>
+      </c>
+      <c r="F12">
+        <v>0.06161359969713746</v>
+      </c>
+      <c r="G12">
+        <v>-0.04568273460542922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01079199739657961</v>
+        <v>-0.009297008515997142</v>
       </c>
       <c r="C13">
-        <v>-0.05285605295489495</v>
+        <v>0.04263171241507659</v>
       </c>
       <c r="D13">
-        <v>-0.01227793548884178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.044558710380448</v>
+      </c>
+      <c r="E13">
+        <v>0.0938272433983028</v>
+      </c>
+      <c r="F13">
+        <v>0.08700828859644578</v>
+      </c>
+      <c r="G13">
+        <v>-0.07001972498175849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006072323591365515</v>
+        <v>-0.003652452682972958</v>
       </c>
       <c r="C14">
-        <v>-0.04115708685869948</v>
+        <v>0.03327019917926802</v>
       </c>
       <c r="D14">
-        <v>0.01226368532059929</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02156478882039609</v>
+      </c>
+      <c r="E14">
+        <v>0.04656884384644844</v>
+      </c>
+      <c r="F14">
+        <v>0.09557405080024109</v>
+      </c>
+      <c r="G14">
+        <v>-0.04731030097388182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0002400264277617512</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.004656738242008267</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.006590194698137334</v>
+      </c>
+      <c r="E15">
+        <v>0.003783238634017542</v>
+      </c>
+      <c r="F15">
+        <v>0.006782303967354119</v>
+      </c>
+      <c r="G15">
+        <v>-0.003849938059100333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03613883906013815</v>
+        <v>-0.03313554293254406</v>
       </c>
       <c r="C16">
-        <v>-0.05002081602695781</v>
+        <v>0.04585124550189939</v>
       </c>
       <c r="D16">
-        <v>-0.006608373064619015</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02357849317437394</v>
+      </c>
+      <c r="E16">
+        <v>0.03719342068214291</v>
+      </c>
+      <c r="F16">
+        <v>0.06452917100419397</v>
+      </c>
+      <c r="G16">
+        <v>-0.03426678041305573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01871466635906618</v>
+        <v>-0.01443517295474932</v>
       </c>
       <c r="C19">
-        <v>-0.06555041283229171</v>
+        <v>0.04780450623185157</v>
       </c>
       <c r="D19">
-        <v>-0.0869863222634185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08771279527447449</v>
+      </c>
+      <c r="E19">
+        <v>0.1061074905223698</v>
+      </c>
+      <c r="F19">
+        <v>0.08480135778569624</v>
+      </c>
+      <c r="G19">
+        <v>-0.02050688055999172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01412166407428666</v>
+        <v>-0.01160828030303643</v>
       </c>
       <c r="C20">
-        <v>-0.04837686597061002</v>
+        <v>0.03933007080138881</v>
       </c>
       <c r="D20">
-        <v>-0.01176865788341605</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03176165181088609</v>
+      </c>
+      <c r="E20">
+        <v>0.07442820369562621</v>
+      </c>
+      <c r="F20">
+        <v>0.07192631827661479</v>
+      </c>
+      <c r="G20">
+        <v>-0.04563680785855159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.00759755225202359</v>
+        <v>-0.007607327810035552</v>
       </c>
       <c r="C21">
-        <v>-0.04945651679418733</v>
+        <v>0.04197767749284322</v>
       </c>
       <c r="D21">
-        <v>-0.0378323832485675</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.05810412487440503</v>
+      </c>
+      <c r="E21">
+        <v>0.1134990733523997</v>
+      </c>
+      <c r="F21">
+        <v>0.1155429783740041</v>
+      </c>
+      <c r="G21">
+        <v>-0.07001533781549939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0007608733325244596</v>
+        <v>-0.002230955182579956</v>
       </c>
       <c r="C22">
-        <v>-0.0006031422444623948</v>
+        <v>0.02559965676722392</v>
       </c>
       <c r="D22">
-        <v>-0.001646449159729118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04166728103193441</v>
+      </c>
+      <c r="E22">
+        <v>0.03790506282968124</v>
+      </c>
+      <c r="F22">
+        <v>0.00382431607025774</v>
+      </c>
+      <c r="G22">
+        <v>-0.05152542303070548</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0007664927073031822</v>
+        <v>-0.002302147163443232</v>
       </c>
       <c r="C23">
-        <v>-0.0006031187349085613</v>
+        <v>0.0257575099270572</v>
       </c>
       <c r="D23">
-        <v>-0.001652798106315164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04132041697649366</v>
+      </c>
+      <c r="E23">
+        <v>0.03817651344166682</v>
+      </c>
+      <c r="F23">
+        <v>0.003517604382172618</v>
+      </c>
+      <c r="G23">
+        <v>-0.05161478692135871</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03262662660184675</v>
+        <v>-0.03280803592076592</v>
       </c>
       <c r="C24">
-        <v>-0.05151278481844428</v>
+        <v>0.05345287276677867</v>
       </c>
       <c r="D24">
-        <v>-0.007015955774701398</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02356992098940713</v>
+      </c>
+      <c r="E24">
+        <v>0.03839636337803793</v>
+      </c>
+      <c r="F24">
+        <v>0.06877216180609015</v>
+      </c>
+      <c r="G24">
+        <v>-0.04484698995647951</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04601620672263779</v>
+        <v>-0.04221931750548291</v>
       </c>
       <c r="C25">
-        <v>-0.06378704203120165</v>
+        <v>0.05802968766949827</v>
       </c>
       <c r="D25">
-        <v>0.004171781955093867</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02187393698022821</v>
+      </c>
+      <c r="E25">
+        <v>0.02842396837580163</v>
+      </c>
+      <c r="F25">
+        <v>0.06467997968231436</v>
+      </c>
+      <c r="G25">
+        <v>-0.06067465533736696</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01516841235522694</v>
+        <v>-0.01425752057463701</v>
       </c>
       <c r="C26">
-        <v>-0.01856619092910281</v>
+        <v>0.01751849930711736</v>
       </c>
       <c r="D26">
-        <v>0.0005325191382520543</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.020820593840286</v>
+      </c>
+      <c r="E26">
+        <v>0.04701137074369758</v>
+      </c>
+      <c r="F26">
+        <v>0.07126574381016876</v>
+      </c>
+      <c r="G26">
+        <v>-0.02219256075571287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1012369304499757</v>
+        <v>-0.1424590494488605</v>
       </c>
       <c r="C28">
-        <v>0.2404725981600448</v>
+        <v>-0.2466869665775896</v>
       </c>
       <c r="D28">
-        <v>0.00832248021350402</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.0278960491262976</v>
+      </c>
+      <c r="E28">
+        <v>0.05814913038662469</v>
+      </c>
+      <c r="F28">
+        <v>0.04435462342422588</v>
+      </c>
+      <c r="G28">
+        <v>-0.04353474604615827</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.005863089386039791</v>
+        <v>-0.004786039004760254</v>
       </c>
       <c r="C29">
-        <v>-0.03293915448382497</v>
+        <v>0.02915732637223701</v>
       </c>
       <c r="D29">
-        <v>0.01626041949661725</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01513918513796643</v>
+      </c>
+      <c r="E29">
+        <v>0.04504842408638186</v>
+      </c>
+      <c r="F29">
+        <v>0.0845874086950954</v>
+      </c>
+      <c r="G29">
+        <v>-0.05639154324747507</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04210663274601217</v>
+        <v>-0.03843888402052078</v>
       </c>
       <c r="C30">
-        <v>-0.05734050237839978</v>
+        <v>0.0586589833650861</v>
       </c>
       <c r="D30">
-        <v>-0.0634346819655135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09551781425377034</v>
+      </c>
+      <c r="E30">
+        <v>0.07155311165809276</v>
+      </c>
+      <c r="F30">
+        <v>0.09106825769403668</v>
+      </c>
+      <c r="G30">
+        <v>-0.03462325381973572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05569330083241388</v>
+        <v>-0.05545220178767734</v>
       </c>
       <c r="C31">
-        <v>-0.04659923561624537</v>
+        <v>0.06215474339695505</v>
       </c>
       <c r="D31">
-        <v>0.02328312699815801</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01217243142148906</v>
+      </c>
+      <c r="E31">
+        <v>0.06676401142023979</v>
+      </c>
+      <c r="F31">
+        <v>0.04715870722060649</v>
+      </c>
+      <c r="G31">
+        <v>-0.07399763764901626</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.00250142579564454</v>
+        <v>-0.004562937242699383</v>
       </c>
       <c r="C32">
-        <v>-0.03979621773358381</v>
+        <v>0.03312218984868669</v>
       </c>
       <c r="D32">
-        <v>-0.047551149370898</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05227976616762376</v>
+      </c>
+      <c r="E32">
+        <v>0.05553265194761891</v>
+      </c>
+      <c r="F32">
+        <v>0.07437775326266297</v>
+      </c>
+      <c r="G32">
+        <v>-0.02812162732034534</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02643862065560238</v>
+        <v>-0.023276084154808</v>
       </c>
       <c r="C33">
-        <v>-0.06369685124834934</v>
+        <v>0.05558963904832934</v>
       </c>
       <c r="D33">
-        <v>-0.03995831434773033</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.06956589990113866</v>
+      </c>
+      <c r="E33">
+        <v>0.08617216448249208</v>
+      </c>
+      <c r="F33">
+        <v>0.103521671717333</v>
+      </c>
+      <c r="G33">
+        <v>-0.07158710860064012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04404869533888275</v>
+        <v>-0.03984714768266805</v>
       </c>
       <c r="C34">
-        <v>-0.06858346530683729</v>
+        <v>0.06583547780411776</v>
       </c>
       <c r="D34">
-        <v>-0.006121278830243168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03262567775856496</v>
+      </c>
+      <c r="E34">
+        <v>0.00941198113210902</v>
+      </c>
+      <c r="F34">
+        <v>0.07389166315183104</v>
+      </c>
+      <c r="G34">
+        <v>-0.04771468635784023</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01505889601186121</v>
+        <v>-0.01368835639968873</v>
       </c>
       <c r="C36">
-        <v>-0.01737659643539504</v>
+        <v>0.01333959086680042</v>
       </c>
       <c r="D36">
-        <v>0.00310192705436768</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02101527441250379</v>
+      </c>
+      <c r="E36">
+        <v>0.05532535586175545</v>
+      </c>
+      <c r="F36">
+        <v>0.06679338041694433</v>
+      </c>
+      <c r="G36">
+        <v>-0.04339198686381561</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02850290977377987</v>
+        <v>-0.02229347499073719</v>
       </c>
       <c r="C38">
-        <v>-0.0314153822100347</v>
+        <v>0.02398418600217008</v>
       </c>
       <c r="D38">
-        <v>0.01332002050022817</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01808946138371188</v>
+      </c>
+      <c r="E38">
+        <v>0.04688853913738251</v>
+      </c>
+      <c r="F38">
+        <v>0.05390802850040741</v>
+      </c>
+      <c r="G38">
+        <v>-0.0293113540754939</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04244347014279175</v>
+        <v>-0.0372912442158658</v>
       </c>
       <c r="C39">
-        <v>-0.06741110933224823</v>
+        <v>0.06538267079831364</v>
       </c>
       <c r="D39">
-        <v>-0.0171209688250125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04856332882449278</v>
+      </c>
+      <c r="E39">
+        <v>0.04362953189238123</v>
+      </c>
+      <c r="F39">
+        <v>0.08814669629132009</v>
+      </c>
+      <c r="G39">
+        <v>-0.03251216209935658</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01149013546547767</v>
+        <v>-0.01222007823085936</v>
       </c>
       <c r="C40">
-        <v>-0.05127222565573269</v>
+        <v>0.03708973266316699</v>
       </c>
       <c r="D40">
-        <v>-0.01926080380291052</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.02941364854249854</v>
+      </c>
+      <c r="E40">
+        <v>0.08144785923267675</v>
+      </c>
+      <c r="F40">
+        <v>0.06141341769040305</v>
+      </c>
+      <c r="G40">
+        <v>-0.08239797140789792</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.0215005756764327</v>
+        <v>-0.01912968261149514</v>
       </c>
       <c r="C41">
-        <v>-0.01383118060796667</v>
+        <v>0.01075976370387762</v>
       </c>
       <c r="D41">
-        <v>-0.002099056786074809</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01441912857114491</v>
+      </c>
+      <c r="E41">
+        <v>0.05583133289672477</v>
+      </c>
+      <c r="F41">
+        <v>0.06110671935566135</v>
+      </c>
+      <c r="G41">
+        <v>-0.03574577576850596</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03772995755689002</v>
+        <v>-0.02845945151130263</v>
       </c>
       <c r="C43">
-        <v>-0.03553844938134612</v>
+        <v>0.02601881624932861</v>
       </c>
       <c r="D43">
-        <v>-0.0285004026198181</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04099342633312072</v>
+      </c>
+      <c r="E43">
+        <v>0.07068374466916569</v>
+      </c>
+      <c r="F43">
+        <v>0.06451255173577086</v>
+      </c>
+      <c r="G43">
+        <v>-0.06021249824236673</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01037712871642171</v>
+        <v>-0.01258401024052376</v>
       </c>
       <c r="C44">
-        <v>-0.06788828327909563</v>
+        <v>0.04902824089737205</v>
       </c>
       <c r="D44">
-        <v>-0.009950558376102578</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03166144882761903</v>
+      </c>
+      <c r="E44">
+        <v>0.08531448055673164</v>
+      </c>
+      <c r="F44">
+        <v>0.07203793703859332</v>
+      </c>
+      <c r="G44">
+        <v>-0.02532301027016725</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.006956428159154075</v>
+        <v>-0.007905580651135764</v>
       </c>
       <c r="C46">
-        <v>-0.02944163906003473</v>
+        <v>0.0294483066810107</v>
       </c>
       <c r="D46">
-        <v>0.0174934854672996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.009160147572868009</v>
+      </c>
+      <c r="E46">
+        <v>0.05410127506281959</v>
+      </c>
+      <c r="F46">
+        <v>0.09878497146301085</v>
+      </c>
+      <c r="G46">
+        <v>-0.05372285798896815</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08197564673416981</v>
+        <v>-0.08682921938363075</v>
       </c>
       <c r="C47">
-        <v>-0.0735434575289135</v>
+        <v>0.083156987688009</v>
       </c>
       <c r="D47">
-        <v>0.02369975992092686</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02031438418506746</v>
+      </c>
+      <c r="E47">
+        <v>0.06885301851975152</v>
+      </c>
+      <c r="F47">
+        <v>0.04646608719864084</v>
+      </c>
+      <c r="G47">
+        <v>-0.0733885372868624</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01757031472031215</v>
+        <v>-0.01583527073404469</v>
       </c>
       <c r="C48">
-        <v>-0.01630907870011254</v>
+        <v>0.0171895457012392</v>
       </c>
       <c r="D48">
-        <v>0.01705495077915688</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.009672898918610031</v>
+      </c>
+      <c r="E48">
+        <v>0.06539687521001321</v>
+      </c>
+      <c r="F48">
+        <v>0.08390478892811445</v>
+      </c>
+      <c r="G48">
+        <v>-0.05022978004236318</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.07807112818869584</v>
+        <v>-0.06924225106470454</v>
       </c>
       <c r="C50">
-        <v>-0.08388482188265613</v>
+        <v>0.07710003499305429</v>
       </c>
       <c r="D50">
-        <v>0.02369051286773406</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.006004036518501433</v>
+      </c>
+      <c r="E50">
+        <v>0.07442324488727484</v>
+      </c>
+      <c r="F50">
+        <v>0.02618731618184414</v>
+      </c>
+      <c r="G50">
+        <v>-0.09089850144300661</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01290572391416202</v>
+        <v>-0.008728464799340724</v>
       </c>
       <c r="C51">
-        <v>-0.05194394981341036</v>
+        <v>0.03267073362493872</v>
       </c>
       <c r="D51">
-        <v>-0.02705817294842178</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04804856951246123</v>
+      </c>
+      <c r="E51">
+        <v>0.04496659395582233</v>
+      </c>
+      <c r="F51">
+        <v>0.08776426742515064</v>
+      </c>
+      <c r="G51">
+        <v>-0.02976145562033211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.07958527688577773</v>
+        <v>-0.09268218273641345</v>
       </c>
       <c r="C53">
-        <v>-0.08046175983865859</v>
+        <v>0.08988615540904195</v>
       </c>
       <c r="D53">
-        <v>0.0466761901189841</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05135016627700249</v>
+      </c>
+      <c r="E53">
+        <v>0.06461859124157739</v>
+      </c>
+      <c r="F53">
+        <v>0.04434163299933611</v>
+      </c>
+      <c r="G53">
+        <v>-0.07778942210082433</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0309364447957091</v>
+        <v>-0.02744369956000401</v>
       </c>
       <c r="C54">
-        <v>-0.03204231817516933</v>
+        <v>0.02923234501177615</v>
       </c>
       <c r="D54">
-        <v>0.0008915553150331297</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02433739608567546</v>
+      </c>
+      <c r="E54">
+        <v>0.05385727964827966</v>
+      </c>
+      <c r="F54">
+        <v>0.09040352168152002</v>
+      </c>
+      <c r="G54">
+        <v>-0.05536910345802597</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07382730834206229</v>
+        <v>-0.08465465120791067</v>
       </c>
       <c r="C55">
-        <v>-0.06119543794047396</v>
+        <v>0.07252236307390031</v>
       </c>
       <c r="D55">
-        <v>0.0521346877974816</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05577145505266021</v>
+      </c>
+      <c r="E55">
+        <v>0.04632521936722277</v>
+      </c>
+      <c r="F55">
+        <v>0.02497201189256194</v>
+      </c>
+      <c r="G55">
+        <v>-0.05814928569402705</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1433439068388839</v>
+        <v>-0.1460947446212415</v>
       </c>
       <c r="C56">
-        <v>-0.0999668320908134</v>
+        <v>0.110943588717017</v>
       </c>
       <c r="D56">
-        <v>0.04446332555976856</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05245843390990699</v>
+      </c>
+      <c r="E56">
+        <v>0.04625859976827192</v>
+      </c>
+      <c r="F56">
+        <v>0.002081048744918756</v>
+      </c>
+      <c r="G56">
+        <v>-0.04589082449740763</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04217429162400489</v>
+        <v>-0.02471994696990592</v>
       </c>
       <c r="C58">
-        <v>-0.02114638906142478</v>
+        <v>0.02140170674789834</v>
       </c>
       <c r="D58">
-        <v>-0.7539829654221261</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4135653080602369</v>
+      </c>
+      <c r="E58">
+        <v>0.6539028907322257</v>
+      </c>
+      <c r="F58">
+        <v>-0.4943774460861354</v>
+      </c>
+      <c r="G58">
+        <v>0.2907515907875596</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1385834411444946</v>
+        <v>-0.1490124606232323</v>
       </c>
       <c r="C59">
-        <v>0.193083872529921</v>
+        <v>-0.1843215598384918</v>
       </c>
       <c r="D59">
-        <v>-0.02022594341887073</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02408116680107066</v>
+      </c>
+      <c r="E59">
+        <v>0.02687408055803956</v>
+      </c>
+      <c r="F59">
+        <v>0.03014465021849981</v>
+      </c>
+      <c r="G59">
+        <v>0.0210977126281796</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3078479172636036</v>
+        <v>-0.2792900788116111</v>
       </c>
       <c r="C60">
-        <v>-0.1100828187100323</v>
+        <v>0.1079170398456564</v>
       </c>
       <c r="D60">
-        <v>-0.1400808492140698</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2549382004732939</v>
+      </c>
+      <c r="E60">
+        <v>-0.2500293107917103</v>
+      </c>
+      <c r="F60">
+        <v>-0.06872487264943831</v>
+      </c>
+      <c r="G60">
+        <v>-0.04355219047061749</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04066660725294942</v>
+        <v>-0.03877013385879817</v>
       </c>
       <c r="C61">
-        <v>-0.06471928922753759</v>
+        <v>0.06103076031558546</v>
       </c>
       <c r="D61">
-        <v>-0.01456103246446643</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04083614093840556</v>
+      </c>
+      <c r="E61">
+        <v>0.04730195203818069</v>
+      </c>
+      <c r="F61">
+        <v>0.07112585793453333</v>
+      </c>
+      <c r="G61">
+        <v>-0.05181761585575985</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01418594778919098</v>
+        <v>-0.01383062370832802</v>
       </c>
       <c r="C63">
-        <v>-0.0350931461061538</v>
+        <v>0.03240220891886399</v>
       </c>
       <c r="D63">
-        <v>0.01190130802776931</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01581847283476389</v>
+      </c>
+      <c r="E63">
+        <v>0.05805368720797201</v>
+      </c>
+      <c r="F63">
+        <v>0.05671678282002531</v>
+      </c>
+      <c r="G63">
+        <v>-0.06081509727850719</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04754973368472445</v>
+        <v>-0.05399578040201915</v>
       </c>
       <c r="C64">
-        <v>-0.0487468239593784</v>
+        <v>0.05803912612133189</v>
       </c>
       <c r="D64">
-        <v>-0.0006876398765494519</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.004075686126561681</v>
+      </c>
+      <c r="E64">
+        <v>0.03583330556015639</v>
+      </c>
+      <c r="F64">
+        <v>0.07382999705849205</v>
+      </c>
+      <c r="G64">
+        <v>-0.04398623027118496</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08311060838001537</v>
+        <v>-0.06723059075879315</v>
       </c>
       <c r="C65">
-        <v>-0.03261455485376767</v>
+        <v>0.03046540876566896</v>
       </c>
       <c r="D65">
-        <v>-0.05671320641576025</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08487035428145534</v>
+      </c>
+      <c r="E65">
+        <v>0.04726950733203215</v>
+      </c>
+      <c r="F65">
+        <v>0.009574305631391408</v>
+      </c>
+      <c r="G65">
+        <v>-0.01617082108198708</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.05718054335544182</v>
+        <v>-0.04834489741279251</v>
       </c>
       <c r="C66">
-        <v>-0.09318094366946307</v>
+        <v>0.08420389896670384</v>
       </c>
       <c r="D66">
-        <v>-0.03635359968997771</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07292877394439644</v>
+      </c>
+      <c r="E66">
+        <v>0.05096328377070391</v>
+      </c>
+      <c r="F66">
+        <v>0.08674736051065884</v>
+      </c>
+      <c r="G66">
+        <v>-0.05029824250279013</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05074597293673246</v>
+        <v>-0.04439065964459357</v>
       </c>
       <c r="C67">
-        <v>-0.03354101656307262</v>
+        <v>0.02964173758827929</v>
       </c>
       <c r="D67">
-        <v>0.01927645586764518</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.003102915233856581</v>
+      </c>
+      <c r="E67">
+        <v>0.02502170043034728</v>
+      </c>
+      <c r="F67">
+        <v>0.0384011506007863</v>
+      </c>
+      <c r="G67">
+        <v>-0.0256018342806896</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1380206862292361</v>
+        <v>-0.1580555535449932</v>
       </c>
       <c r="C68">
-        <v>0.2783023713339925</v>
+        <v>-0.2426523247191001</v>
       </c>
       <c r="D68">
-        <v>0.008029781413648926</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01643274085698834</v>
+      </c>
+      <c r="E68">
+        <v>0.04089861849097449</v>
+      </c>
+      <c r="F68">
+        <v>0.01627847259017864</v>
+      </c>
+      <c r="G68">
+        <v>-0.02895539587701113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08856789688657928</v>
+        <v>-0.08563480540256042</v>
       </c>
       <c r="C69">
-        <v>-0.07344555561853079</v>
+        <v>0.09052295468060191</v>
       </c>
       <c r="D69">
-        <v>0.03836996785140803</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0118166033244591</v>
+      </c>
+      <c r="E69">
+        <v>0.05299682853879271</v>
+      </c>
+      <c r="F69">
+        <v>0.07248128879547507</v>
+      </c>
+      <c r="G69">
+        <v>-0.06255045546925213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1247522060340029</v>
+        <v>-0.1482361162464596</v>
       </c>
       <c r="C71">
-        <v>0.2459055522274487</v>
+        <v>-0.2339535494427687</v>
       </c>
       <c r="D71">
-        <v>-0.01685944774209178</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.00120959952169086</v>
+      </c>
+      <c r="E71">
+        <v>0.06227077793411538</v>
+      </c>
+      <c r="F71">
+        <v>0.03537304564326783</v>
+      </c>
+      <c r="G71">
+        <v>-0.05851293759601001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.08956811860598413</v>
+        <v>-0.09794163984526809</v>
       </c>
       <c r="C72">
-        <v>-0.06077985459038601</v>
+        <v>0.06131978765435142</v>
       </c>
       <c r="D72">
-        <v>-0.003162963455312654</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02698073349035266</v>
+      </c>
+      <c r="E72">
+        <v>0.02525285468094174</v>
+      </c>
+      <c r="F72">
+        <v>0.05178486259563472</v>
+      </c>
+      <c r="G72">
+        <v>-0.06220230259195003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.402959223984471</v>
+        <v>-0.3413014029949701</v>
       </c>
       <c r="C73">
-        <v>-0.06016128531887644</v>
+        <v>0.0749415765538733</v>
       </c>
       <c r="D73">
-        <v>-0.3465650397500967</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5103675073614992</v>
+      </c>
+      <c r="E73">
+        <v>-0.4545256145074352</v>
+      </c>
+      <c r="F73">
+        <v>-0.2204829292809032</v>
+      </c>
+      <c r="G73">
+        <v>-0.04668640462507348</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1025104103110944</v>
+        <v>-0.1083423463610091</v>
       </c>
       <c r="C74">
-        <v>-0.09795261703582306</v>
+        <v>0.09850417269210884</v>
       </c>
       <c r="D74">
-        <v>0.02686195868906186</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04264843272930952</v>
+      </c>
+      <c r="E74">
+        <v>0.06313895639800068</v>
+      </c>
+      <c r="F74">
+        <v>0.001936391070339961</v>
+      </c>
+      <c r="G74">
+        <v>-0.06747281015405378</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2509222665458593</v>
+        <v>-0.2554406507811764</v>
       </c>
       <c r="C75">
-        <v>-0.1114718908895076</v>
+        <v>0.13726213313826</v>
       </c>
       <c r="D75">
-        <v>0.1020006726404402</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1437135995936987</v>
+      </c>
+      <c r="E75">
+        <v>0.05319219254264108</v>
+      </c>
+      <c r="F75">
+        <v>-0.04746640679417742</v>
+      </c>
+      <c r="G75">
+        <v>-0.01699455580195447</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1089788560355877</v>
+        <v>-0.124281309342378</v>
       </c>
       <c r="C76">
-        <v>-0.08777225582815143</v>
+        <v>0.09923948405437277</v>
       </c>
       <c r="D76">
-        <v>0.05289528111123293</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07112741119548729</v>
+      </c>
+      <c r="E76">
+        <v>0.07166578603814641</v>
+      </c>
+      <c r="F76">
+        <v>0.02431887642379692</v>
+      </c>
+      <c r="G76">
+        <v>-0.05597324588991483</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.0746175261368776</v>
+        <v>-0.06032407217046061</v>
       </c>
       <c r="C77">
-        <v>-0.0590659574111099</v>
+        <v>0.06740046226196238</v>
       </c>
       <c r="D77">
-        <v>-0.04954681533419909</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05627636008649041</v>
+      </c>
+      <c r="E77">
+        <v>0.09603406117254421</v>
+      </c>
+      <c r="F77">
+        <v>0.1501222101440731</v>
+      </c>
+      <c r="G77">
+        <v>0.1140267944842615</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04557057102636985</v>
+        <v>-0.04256361539385578</v>
       </c>
       <c r="C78">
-        <v>-0.05227620113329369</v>
+        <v>0.05835526832113792</v>
       </c>
       <c r="D78">
-        <v>-0.01682260569828764</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0563069128013786</v>
+      </c>
+      <c r="E78">
+        <v>0.05360937238769921</v>
+      </c>
+      <c r="F78">
+        <v>0.08138461790373896</v>
+      </c>
+      <c r="G78">
+        <v>-0.04504512062668376</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02847224949483857</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04564112375881133</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06932073354315429</v>
+      </c>
+      <c r="E79">
+        <v>0.06487523690581791</v>
+      </c>
+      <c r="F79">
+        <v>-0.01155632461840888</v>
+      </c>
+      <c r="G79">
+        <v>-0.06197466698798787</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03846028275794888</v>
+        <v>-0.03010892211628584</v>
       </c>
       <c r="C80">
-        <v>-0.05349380544562287</v>
+        <v>0.05225100655477446</v>
       </c>
       <c r="D80">
-        <v>-0.01648218046989275</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03188852332441542</v>
+      </c>
+      <c r="E80">
+        <v>0.01465232375133134</v>
+      </c>
+      <c r="F80">
+        <v>0.04694219951234642</v>
+      </c>
+      <c r="G80">
+        <v>0.02930662786407586</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.13700178606281</v>
+        <v>-0.1368764594375044</v>
       </c>
       <c r="C81">
-        <v>-0.0806850068696728</v>
+        <v>0.09726266712756337</v>
       </c>
       <c r="D81">
-        <v>0.07227029318205261</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.113490798801416</v>
+      </c>
+      <c r="E81">
+        <v>0.07406119611350774</v>
+      </c>
+      <c r="F81">
+        <v>-0.02993348441778956</v>
+      </c>
+      <c r="G81">
+        <v>-0.02345346240732472</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1688984313788728</v>
+        <v>-0.2070920997313419</v>
       </c>
       <c r="C82">
-        <v>-0.09694965337317045</v>
+        <v>0.160238878690364</v>
       </c>
       <c r="D82">
-        <v>0.1590309482967812</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2341089574301469</v>
+      </c>
+      <c r="E82">
+        <v>-0.0015585579155829</v>
+      </c>
+      <c r="F82">
+        <v>0.04827279216556694</v>
+      </c>
+      <c r="G82">
+        <v>-0.04450537174277987</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03831726695670613</v>
+        <v>-0.02619398823614431</v>
       </c>
       <c r="C83">
-        <v>-0.03144920357294105</v>
+        <v>0.0433462346057455</v>
       </c>
       <c r="D83">
-        <v>-0.02673864821047936</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0276034260556606</v>
+      </c>
+      <c r="E83">
+        <v>0.02244861912557771</v>
+      </c>
+      <c r="F83">
+        <v>0.04650187618004747</v>
+      </c>
+      <c r="G83">
+        <v>0.003932442255252576</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0001201775838851178</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0007509237174667554</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001101025531968358</v>
+      </c>
+      <c r="E84">
+        <v>0.000715111373996514</v>
+      </c>
+      <c r="F84">
+        <v>0.001049754288255139</v>
+      </c>
+      <c r="G84">
+        <v>-0.0004408302456723613</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2163143934325654</v>
+        <v>-0.2003097970291892</v>
       </c>
       <c r="C85">
-        <v>-0.1094639512804382</v>
+        <v>0.1204269974908964</v>
       </c>
       <c r="D85">
-        <v>0.1352276867660326</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.11231959760929</v>
+      </c>
+      <c r="E85">
+        <v>-0.01688102875807387</v>
+      </c>
+      <c r="F85">
+        <v>-0.08942640400048794</v>
+      </c>
+      <c r="G85">
+        <v>-0.06828540380279526</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.005546685476261009</v>
+        <v>-0.008055592206283439</v>
       </c>
       <c r="C86">
-        <v>-0.03248720312963153</v>
+        <v>0.02314492358647879</v>
       </c>
       <c r="D86">
-        <v>-0.02562645663862848</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04630779060232677</v>
+      </c>
+      <c r="E86">
+        <v>0.06812847499129211</v>
+      </c>
+      <c r="F86">
+        <v>0.1300109690055488</v>
+      </c>
+      <c r="G86">
+        <v>-0.05087976634869884</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02250676150953224</v>
+        <v>-0.02281745654793228</v>
       </c>
       <c r="C87">
-        <v>-0.008458238484516276</v>
+        <v>0.01427842502745428</v>
       </c>
       <c r="D87">
-        <v>-0.08609980851076733</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08065730660145531</v>
+      </c>
+      <c r="E87">
+        <v>0.1229508583739407</v>
+      </c>
+      <c r="F87">
+        <v>0.08471483642131981</v>
+      </c>
+      <c r="G87">
+        <v>0.004749526995538817</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1035645789334131</v>
+        <v>-0.09117330811561755</v>
       </c>
       <c r="C88">
-        <v>-0.07539833414349131</v>
+        <v>0.06463194115509165</v>
       </c>
       <c r="D88">
-        <v>0.02378900969635566</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0030215134925856</v>
+      </c>
+      <c r="E88">
+        <v>0.04675715231720155</v>
+      </c>
+      <c r="F88">
+        <v>0.07616595889027876</v>
+      </c>
+      <c r="G88">
+        <v>-0.01396196556410556</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1983802181960124</v>
+        <v>-0.2284874513957224</v>
       </c>
       <c r="C89">
-        <v>0.3712294110784012</v>
+        <v>-0.373311890638085</v>
       </c>
       <c r="D89">
-        <v>0.03122959858340978</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02702139154773359</v>
+      </c>
+      <c r="E89">
+        <v>0.06669076540035045</v>
+      </c>
+      <c r="F89">
+        <v>0.08970836147476416</v>
+      </c>
+      <c r="G89">
+        <v>0.0314563134638941</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1890324542374972</v>
+        <v>-0.2077084119911329</v>
       </c>
       <c r="C90">
-        <v>0.3290836215393396</v>
+        <v>-0.3076535550663736</v>
       </c>
       <c r="D90">
-        <v>0.02760370106274643</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02657974920444843</v>
+      </c>
+      <c r="E90">
+        <v>0.06799344716229432</v>
+      </c>
+      <c r="F90">
+        <v>0.04006919215399788</v>
+      </c>
+      <c r="G90">
+        <v>-0.002227909410475635</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1856504595250041</v>
+        <v>-0.1835115602495959</v>
       </c>
       <c r="C91">
-        <v>-0.1325782303025077</v>
+        <v>0.147781552779304</v>
       </c>
       <c r="D91">
-        <v>0.09534919216538368</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1192136536044493</v>
+      </c>
+      <c r="E91">
+        <v>0.05353558423506687</v>
+      </c>
+      <c r="F91">
+        <v>-0.01626155901283196</v>
+      </c>
+      <c r="G91">
+        <v>-0.02704583754880092</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1702531758216982</v>
+        <v>-0.1871688441003773</v>
       </c>
       <c r="C92">
-        <v>0.2757675863757296</v>
+        <v>-0.2837000560803289</v>
       </c>
       <c r="D92">
-        <v>0.01900874319200218</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02749179593807539</v>
+      </c>
+      <c r="E92">
+        <v>0.07290619211956666</v>
+      </c>
+      <c r="F92">
+        <v>0.07373322493056554</v>
+      </c>
+      <c r="G92">
+        <v>-0.0124758058714732</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2115714729916117</v>
+        <v>-0.2305217557082059</v>
       </c>
       <c r="C93">
-        <v>0.3292626536476995</v>
+        <v>-0.3132416197983867</v>
       </c>
       <c r="D93">
-        <v>0.03179823096870692</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02352195203020715</v>
+      </c>
+      <c r="E93">
+        <v>0.04059364810329992</v>
+      </c>
+      <c r="F93">
+        <v>0.01961101947696716</v>
+      </c>
+      <c r="G93">
+        <v>-0.03516848629381908</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3338724734344284</v>
+        <v>-0.3371375567731529</v>
       </c>
       <c r="C94">
-        <v>-0.1653370113525183</v>
+        <v>0.1984134639204551</v>
       </c>
       <c r="D94">
-        <v>0.3484532050811644</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4349833134422768</v>
+      </c>
+      <c r="E94">
+        <v>0.008077755332623972</v>
+      </c>
+      <c r="F94">
+        <v>-0.2714982396817505</v>
+      </c>
+      <c r="G94">
+        <v>0.4166736958706402</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1106311118632306</v>
+        <v>-0.08226389744798476</v>
       </c>
       <c r="C95">
-        <v>-0.07382423100828558</v>
+        <v>0.0649958251881239</v>
       </c>
       <c r="D95">
-        <v>-0.1238067759536577</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1773236833178518</v>
+      </c>
+      <c r="E95">
+        <v>-0.1000129207219315</v>
+      </c>
+      <c r="F95">
+        <v>0.5296691118447661</v>
+      </c>
+      <c r="G95">
+        <v>0.7348618289895543</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1948844809767815</v>
+        <v>-0.187134218411427</v>
       </c>
       <c r="C98">
-        <v>-0.02355963962512347</v>
+        <v>0.04552314397689734</v>
       </c>
       <c r="D98">
-        <v>-0.1239616563634796</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1969984935177312</v>
+      </c>
+      <c r="E98">
+        <v>-0.1374950943192152</v>
+      </c>
+      <c r="F98">
+        <v>-0.05328841789841633</v>
+      </c>
+      <c r="G98">
+        <v>-0.08993870068113968</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.005709677163602011</v>
+        <v>-0.004761978391062588</v>
       </c>
       <c r="C101">
-        <v>-0.03282736261843843</v>
+        <v>0.02880850228709518</v>
       </c>
       <c r="D101">
-        <v>0.01609798609053512</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01511363641808873</v>
+      </c>
+      <c r="E101">
+        <v>0.04575011202781096</v>
+      </c>
+      <c r="F101">
+        <v>0.08529156606126909</v>
+      </c>
+      <c r="G101">
+        <v>-0.05614418363107181</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1220900870986413</v>
+        <v>-0.1240359592934701</v>
       </c>
       <c r="C102">
-        <v>-0.07616080867486033</v>
+        <v>0.1040302159632422</v>
       </c>
       <c r="D102">
-        <v>0.03961221540853855</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05235629343824332</v>
+      </c>
+      <c r="E102">
+        <v>-0.008296564814384325</v>
+      </c>
+      <c r="F102">
+        <v>0.01781735566644092</v>
+      </c>
+      <c r="G102">
+        <v>-0.001971403895786833</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
